--- a/SecB_Projects.xlsx
+++ b/SecB_Projects.xlsx
@@ -489,15 +489,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -510,16 +501,25 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -840,7 +840,7 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -851,36 +851,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33" customHeight="1" thickBot="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="15"/>
     </row>
     <row r="4" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A4" s="7">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1457,6 +1457,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <sortState ref="C4:C28">
     <sortCondition ref="C4:C28"/>
   </sortState>

--- a/SecB_Projects.xlsx
+++ b/SecB_Projects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7485"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="12240" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Project_For_BCAVB" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="74">
   <si>
     <t>S.NO</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>Software Engineering Projects</t>
+  </si>
+  <si>
+    <t>E-Library Mgmt. System</t>
   </si>
 </sst>
 </file>
@@ -839,8 +842,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1288,7 +1291,7 @@
         <v>56</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="39.950000000000003" customHeight="1">
